--- a/Design Requirement/Codes iRt Creative.xlsx
+++ b/Design Requirement/Codes iRt Creative.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Html_CSS\Design Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CC7825-AD66-4EC6-89A6-6191253136F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374D2D19-C772-4B87-99DE-5C117559B90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{F32AC0A1-ED0B-4BE2-B833-AC1095930237}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="540">
   <si>
     <t>Name</t>
   </si>
@@ -1637,6 +1637,27 @@
   </si>
   <si>
     <t>Width: 40px</t>
+  </si>
+  <si>
+    <t>Image Container</t>
+  </si>
+  <si>
+    <t>AA is Code for Category, Catatgories like chat, account, sales, etc or the FOLDER Name</t>
+  </si>
+  <si>
+    <t>CardImg</t>
+  </si>
+  <si>
+    <t>Card with Image on half upper portion, title, small description, link to read more</t>
+  </si>
+  <si>
+    <t>Person Info Container</t>
+  </si>
+  <si>
+    <t>CardSimpleInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small Img of 70x70, Name, Position, Description | Color : red, green, yellow, blue, gray </t>
   </si>
 </sst>
 </file>
@@ -2185,7 +2206,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2232,7 +2253,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>534</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -2406,28 +2427,55 @@
         <v>532</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="10">
         <v>7</v>
       </c>
-      <c r="C9" s="5" t="str">
+      <c r="C9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>007</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="D9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="10">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="str">
+      <c r="C10" s="11" t="str">
         <f t="shared" si="0"/>
         <v>008</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -6085,10 +6133,10 @@
   <dimension ref="A1:H339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E38" sqref="E38:H39"/>
+      <selection pane="bottomRight" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Design Requirement/Codes iRt Creative.xlsx
+++ b/Design Requirement/Codes iRt Creative.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Html_CSS\Design Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374D2D19-C772-4B87-99DE-5C117559B90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0866E6-BEF0-4856-A302-547BE018667B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{F32AC0A1-ED0B-4BE2-B833-AC1095930237}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="556">
   <si>
     <t>Name</t>
   </si>
@@ -1627,18 +1627,6 @@
     <t>btnS</t>
   </si>
   <si>
-    <t>Width: 300px</t>
-  </si>
-  <si>
-    <t>Width: 120px</t>
-  </si>
-  <si>
-    <t>Width: 200px</t>
-  </si>
-  <si>
-    <t>Width: 40px</t>
-  </si>
-  <si>
     <t>Image Container</t>
   </si>
   <si>
@@ -1658,6 +1646,66 @@
   </si>
   <si>
     <t xml:space="preserve">Small Img of 70x70, Name, Position, Description | Color : red, green, yellow, blue, gray </t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>For Showcase Galary</t>
+  </si>
+  <si>
+    <t>CardTextSliding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Full card cover, Image name, category, Small Description, button, product ID | Orientation : both </t>
+  </si>
+  <si>
+    <t>bgColorBlue</t>
+  </si>
+  <si>
+    <t>bgColorYellow</t>
+  </si>
+  <si>
+    <t>bgColorRed</t>
+  </si>
+  <si>
+    <t>bgColorCyan</t>
+  </si>
+  <si>
+    <t>bgColorGreen</t>
+  </si>
+  <si>
+    <t>bgColorSkyBlue</t>
+  </si>
+  <si>
+    <t>bgColorGray1</t>
+  </si>
+  <si>
+    <t>bgColorGray2</t>
+  </si>
+  <si>
+    <t>bgColorGray3</t>
+  </si>
+  <si>
+    <t>bgColorGray4</t>
+  </si>
+  <si>
+    <t>bgColorGray5</t>
+  </si>
+  <si>
+    <t>bgCFolorGray6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width: 120px | Color : red, green, yellow, blue, gray </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width: 200px | Color : red, green, yellow, blue, gray </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width: 300px | Color : red, green, yellow, blue, gray </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width: 40px | Color : red, green, yellow, blue, gray </t>
   </si>
 </sst>
 </file>
@@ -2206,7 +2254,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2253,7 +2301,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -2343,7 +2391,7 @@
         <v>110</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>530</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2370,7 +2418,7 @@
         <v>526</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>531</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2397,7 +2445,7 @@
         <v>527</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>529</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2424,7 +2472,7 @@
         <v>528</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>532</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2442,16 +2490,16 @@
         <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2469,13 +2517,16 @@
         <v>16</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>538</v>
+        <v>533</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>534</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2488,6 +2539,21 @@
       <c r="C11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>009</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -6133,10 +6199,10 @@
   <dimension ref="A1:H339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E50" sqref="E50"/>
+      <selection pane="bottomRight" activeCell="A58" sqref="A58:A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7638,151 +7704,331 @@
         <v>266</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+    <row r="58" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="10">
         <v>56</v>
       </c>
-      <c r="C58" s="5" t="str">
+      <c r="C58" s="11" t="str">
         <f t="shared" si="0"/>
         <v>038</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="D58" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="10">
         <v>57</v>
       </c>
-      <c r="C59" s="5" t="str">
+      <c r="C59" s="11" t="str">
         <f t="shared" si="0"/>
         <v>039</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="D59" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="10">
         <v>58</v>
       </c>
-      <c r="C60" s="5" t="str">
+      <c r="C60" s="11" t="str">
         <f t="shared" si="0"/>
         <v>03A</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="D60" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="10">
         <v>59</v>
       </c>
-      <c r="C61" s="5" t="str">
+      <c r="C61" s="11" t="str">
         <f t="shared" si="0"/>
         <v>03B</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="D61" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="10">
         <v>60</v>
       </c>
-      <c r="C62" s="5" t="str">
+      <c r="C62" s="11" t="str">
         <f t="shared" si="0"/>
         <v>03C</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="D62" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="10">
         <v>61</v>
       </c>
-      <c r="C63" s="5" t="str">
+      <c r="C63" s="11" t="str">
         <f t="shared" si="0"/>
         <v>03D</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="D63" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="10">
         <v>62</v>
       </c>
-      <c r="C64" s="5" t="str">
+      <c r="C64" s="11" t="str">
         <f t="shared" si="0"/>
         <v>03E</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="D64" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="10">
         <v>63</v>
       </c>
-      <c r="C65" s="5" t="str">
+      <c r="C65" s="11" t="str">
         <f t="shared" si="0"/>
         <v>03F</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="D65" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="10">
         <v>64</v>
       </c>
-      <c r="C66" s="5" t="str">
+      <c r="C66" s="11" t="str">
         <f t="shared" si="0"/>
         <v>040</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="D66" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="10">
         <v>65</v>
       </c>
-      <c r="C67" s="5" t="str">
+      <c r="C67" s="11" t="str">
         <f t="shared" si="0"/>
         <v>041</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="D67" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="10">
         <v>66</v>
       </c>
-      <c r="C68" s="5" t="str">
+      <c r="C68" s="11" t="str">
         <f t="shared" si="0"/>
         <v>042</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="D68" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="10">
         <v>67</v>
       </c>
-      <c r="C69" s="5" t="str">
+      <c r="C69" s="11" t="str">
         <f t="shared" si="0"/>
         <v>043</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>198</v>
       </c>
@@ -7794,7 +8040,7 @@
         <v>044</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>199</v>
       </c>
@@ -7806,7 +8052,7 @@
         <v>045</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>200</v>
       </c>
@@ -7818,7 +8064,7 @@
         <v>046</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>201</v>
       </c>
@@ -7830,7 +8076,7 @@
         <v>047</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>202</v>
       </c>
@@ -7842,7 +8088,7 @@
         <v>048</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>203</v>
       </c>
@@ -7854,7 +8100,7 @@
         <v>049</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>204</v>
       </c>
@@ -7866,7 +8112,7 @@
         <v>04A</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>205</v>
       </c>
@@ -7878,7 +8124,7 @@
         <v>04B</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>206</v>
       </c>
@@ -7890,7 +8136,7 @@
         <v>04C</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>207</v>
       </c>
@@ -7902,7 +8148,7 @@
         <v>04D</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>208</v>
       </c>

--- a/Design Requirement/Codes iRt Creative.xlsx
+++ b/Design Requirement/Codes iRt Creative.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Html_CSS\Design Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0866E6-BEF0-4856-A302-547BE018667B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6E496A-7750-42D7-8CF6-4E88C4049C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{F32AC0A1-ED0B-4BE2-B833-AC1095930237}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="558">
   <si>
     <t>Name</t>
   </si>
@@ -1657,9 +1657,6 @@
     <t>CardTextSliding</t>
   </si>
   <si>
-    <t xml:space="preserve">Image Full card cover, Image name, category, Small Description, button, product ID | Orientation : both </t>
-  </si>
-  <si>
     <t>bgColorBlue</t>
   </si>
   <si>
@@ -1706,6 +1703,15 @@
   </si>
   <si>
     <t xml:space="preserve">Width: 40px | Color : red, green, yellow, blue, gray </t>
+  </si>
+  <si>
+    <t>CardtextOn</t>
+  </si>
+  <si>
+    <t>Image Full card cover, ProductName, Small Description, button, product ID | Orientation : Vertical (V), Horizontal (H), Square (S)</t>
+  </si>
+  <si>
+    <t>Image Full card cover, CreatorName, Dateof Creation, OneLineDescription or purpose, product ID | Orientation : Vertical (V), Horizontal (H), Square (S)</t>
   </si>
 </sst>
 </file>
@@ -2254,7 +2260,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2391,7 +2397,7 @@
         <v>110</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2418,7 +2424,7 @@
         <v>526</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2445,7 +2451,7 @@
         <v>527</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2472,7 +2478,7 @@
         <v>528</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2529,34 +2535,34 @@
         <v>535</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:8" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="10">
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="str">
+      <c r="C11" s="11" t="str">
         <f t="shared" si="0"/>
         <v>009</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="9" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>122</v>
       </c>
@@ -2566,6 +2572,21 @@
       <c r="C12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00A</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -6202,7 +6223,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A58" sqref="A58:A69"/>
+      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7725,7 +7746,7 @@
         <v>21</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H58" s="9" t="s">
         <v>29</v>
@@ -7752,7 +7773,7 @@
         <v>24</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H59" s="9" t="s">
         <v>32</v>
@@ -7779,7 +7800,7 @@
         <v>22</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H60" s="9" t="s">
         <v>30</v>
@@ -7806,7 +7827,7 @@
         <v>23</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H61" s="9" t="s">
         <v>31</v>
@@ -7833,7 +7854,7 @@
         <v>25</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H62" s="9" t="s">
         <v>33</v>
@@ -7860,7 +7881,7 @@
         <v>26</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H63" s="9" t="s">
         <v>34</v>
@@ -7887,7 +7908,7 @@
         <v>27</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H64" s="9" t="s">
         <v>77</v>
@@ -7914,7 +7935,7 @@
         <v>28</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H65" s="9" t="s">
         <v>78</v>
@@ -7941,7 +7962,7 @@
         <v>80</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H66" s="9" t="s">
         <v>35</v>
@@ -7968,7 +7989,7 @@
         <v>81</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H67" s="9" t="s">
         <v>251</v>
@@ -7995,7 +8016,7 @@
         <v>82</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H68" s="9" t="s">
         <v>36</v>
@@ -8022,7 +8043,7 @@
         <v>83</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H69" s="9" t="s">
         <v>79</v>

--- a/Design Requirement/Codes iRt Creative.xlsx
+++ b/Design Requirement/Codes iRt Creative.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Html_CSS\Design Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6E496A-7750-42D7-8CF6-4E88C4049C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6F70B9-3522-487E-AD61-480D50345D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{F32AC0A1-ED0B-4BE2-B833-AC1095930237}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="573">
   <si>
     <t>Name</t>
   </si>
@@ -1712,6 +1712,51 @@
   </si>
   <si>
     <t>Image Full card cover, CreatorName, Dateof Creation, OneLineDescription or purpose, product ID | Orientation : Vertical (V), Horizontal (H), Square (S)</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Get Class Name based on Color value provided</t>
+  </si>
+  <si>
+    <t>textColor</t>
+  </si>
+  <si>
+    <t>bgColor</t>
+  </si>
+  <si>
+    <t>hoverColor</t>
+  </si>
+  <si>
+    <t>parameters</t>
+  </si>
+  <si>
+    <t>{ header, footer = null, leftLayout = null,  rightLayout = null,  midLayout}</t>
+  </si>
+  <si>
+    <t>{ content }</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>{ text, link = "#", target = "_blank", color = "blue", }</t>
+  </si>
+  <si>
+    <t>{imgPath, title, desc, link = "#", targetLink = "_blank", }</t>
+  </si>
+  <si>
+    <t>{ imgPath, name, title = null, desc, borderCol = "cyan", }</t>
+  </si>
+  <si>
+    <t>{ imgPath, productName, desc, btnLink = "#", productID = null, color = "blue", orientation = "S", }</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>{authorName, date, imgPath, desc, productID = null, orientation = "H" }</t>
   </si>
 </sst>
 </file>
@@ -2254,13 +2299,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F65C472-B990-4495-8C7C-F3BDF161FC29}">
-  <dimension ref="A1:H333"/>
+  <dimension ref="A1:I333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2268,15 +2313,16 @@
     <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="7" style="4" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21" style="2" customWidth="1"/>
     <col min="5" max="5" width="27.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="26.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="27.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="113.42578125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="2"/>
+    <col min="8" max="8" width="43.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="91.28515625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2299,10 +2345,13 @@
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2315,11 +2364,11 @@
       <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
@@ -2343,10 +2392,13 @@
         <v>267</v>
       </c>
       <c r="H3" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>114</v>
       </c>
@@ -2370,10 +2422,13 @@
         <v>268</v>
       </c>
       <c r="H4" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>115</v>
       </c>
@@ -2397,10 +2452,13 @@
         <v>110</v>
       </c>
       <c r="H5" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>116</v>
       </c>
@@ -2424,10 +2482,13 @@
         <v>526</v>
       </c>
       <c r="H6" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>117</v>
       </c>
@@ -2451,10 +2512,13 @@
         <v>527</v>
       </c>
       <c r="H7" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>118</v>
       </c>
@@ -2478,10 +2542,13 @@
         <v>528</v>
       </c>
       <c r="H8" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>119</v>
       </c>
@@ -2505,10 +2572,13 @@
         <v>531</v>
       </c>
       <c r="H9" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>120</v>
       </c>
@@ -2532,10 +2602,13 @@
         <v>534</v>
       </c>
       <c r="H10" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>121</v>
       </c>
@@ -2559,73 +2632,124 @@
         <v>538</v>
       </c>
       <c r="H11" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:9" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="10">
         <v>10</v>
       </c>
-      <c r="C12" s="5" t="str">
+      <c r="C12" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00A</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="9" t="s">
         <v>536</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="9" t="s">
         <v>555</v>
       </c>
       <c r="H12" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="10">
         <v>11</v>
       </c>
-      <c r="C13" s="5" t="str">
+      <c r="C13" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00B</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="D13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="10">
         <v>12</v>
       </c>
-      <c r="C14" s="5" t="str">
+      <c r="C14" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00C</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="D14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="10">
         <v>13</v>
       </c>
-      <c r="C15" s="5" t="str">
+      <c r="C15" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00D</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>126</v>
       </c>
@@ -6203,7 +6327,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A17:A23 D17:G23">
+  <conditionalFormatting sqref="A17:A23 D17:H23">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"N"</formula>
     </cfRule>
@@ -6217,13 +6341,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6790FF6-08CE-4BDA-BC38-6C314F2201DC}">
-  <dimension ref="A1:H339"/>
+  <dimension ref="A1:I339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomRight" activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6234,12 +6358,12 @@
     <col min="4" max="4" width="24.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="27.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="26.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="113.42578125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="2"/>
+    <col min="7" max="8" width="27.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="113.42578125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6262,10 +6386,13 @@
         <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -6278,11 +6405,11 @@
       <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
@@ -6305,11 +6432,11 @@
       <c r="G3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>114</v>
       </c>
@@ -6332,11 +6459,11 @@
       <c r="G4" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>115</v>
       </c>
@@ -6359,11 +6486,11 @@
       <c r="G5" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>116</v>
       </c>
@@ -6386,11 +6513,12 @@
       <c r="G6" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="13"/>
+      <c r="I6" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>117</v>
       </c>
@@ -6413,11 +6541,11 @@
       <c r="G7" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="I7" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>118</v>
       </c>
@@ -6440,11 +6568,12 @@
       <c r="G8" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="13"/>
+      <c r="I8" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>119</v>
       </c>
@@ -6467,11 +6596,11 @@
       <c r="G9" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="I9" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>120</v>
       </c>
@@ -6494,11 +6623,11 @@
       <c r="G10" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="I10" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>121</v>
       </c>
@@ -6521,11 +6650,11 @@
       <c r="G11" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="I11" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>122</v>
       </c>
@@ -6548,11 +6677,11 @@
       <c r="G12" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="I12" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>123</v>
       </c>
@@ -6575,11 +6704,11 @@
       <c r="G13" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="I13" s="9" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>124</v>
       </c>
@@ -6602,11 +6731,11 @@
       <c r="G14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="I14" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>125</v>
       </c>
@@ -6629,11 +6758,11 @@
       <c r="G15" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="I15" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>126</v>
       </c>
@@ -6656,11 +6785,11 @@
       <c r="G16" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="I16" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>127</v>
       </c>
@@ -6683,11 +6812,11 @@
       <c r="G17" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="I17" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>128</v>
       </c>
@@ -6710,11 +6839,11 @@
       <c r="G18" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="I18" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>129</v>
       </c>
@@ -6737,11 +6866,11 @@
       <c r="G19" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="I19" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>130</v>
       </c>
@@ -6764,11 +6893,11 @@
       <c r="G20" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="I20" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>131</v>
       </c>
@@ -6791,11 +6920,11 @@
       <c r="G21" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="I21" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>132</v>
       </c>
@@ -6818,11 +6947,11 @@
       <c r="G22" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="I22" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>133</v>
       </c>
@@ -6845,11 +6974,11 @@
       <c r="G23" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="I23" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>134</v>
       </c>
@@ -6872,11 +7001,11 @@
       <c r="G24" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="I24" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>135</v>
       </c>
@@ -6899,11 +7028,11 @@
       <c r="G25" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="I25" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>136</v>
       </c>
@@ -6926,11 +7055,11 @@
       <c r="G26" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="I26" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>137</v>
       </c>
@@ -6954,7 +7083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>138</v>
       </c>
@@ -6977,11 +7106,11 @@
       <c r="G28" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="I28" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>139</v>
       </c>
@@ -7004,11 +7133,11 @@
       <c r="G29" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="I29" s="9" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>140</v>
       </c>
@@ -7031,11 +7160,11 @@
       <c r="G30" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="I30" s="9" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>141</v>
       </c>
@@ -7058,11 +7187,11 @@
       <c r="G31" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="I31" s="9" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>142</v>
       </c>
@@ -7085,11 +7214,11 @@
       <c r="G32" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="I32" s="9" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>143</v>
       </c>
@@ -7112,11 +7241,11 @@
       <c r="G33" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="I33" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>144</v>
       </c>
@@ -7139,11 +7268,11 @@
       <c r="G34" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="I34" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>145</v>
       </c>
@@ -7166,11 +7295,11 @@
       <c r="G35" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="I35" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>146</v>
       </c>
@@ -7193,11 +7322,11 @@
       <c r="G36" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="I36" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>147</v>
       </c>
@@ -7220,11 +7349,11 @@
       <c r="G37" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="I37" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>148</v>
       </c>
@@ -7239,7 +7368,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>149</v>
       </c>
@@ -7254,7 +7383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>168</v>
       </c>
@@ -7277,11 +7406,11 @@
       <c r="G40" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="I40" s="9" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>169</v>
       </c>
@@ -7304,11 +7433,11 @@
       <c r="G41" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="I41" s="9" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>170</v>
       </c>
@@ -7331,11 +7460,11 @@
       <c r="G42" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="I42" s="9" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>171</v>
       </c>
@@ -7358,11 +7487,11 @@
       <c r="G43" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="I43" s="9" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>172</v>
       </c>
@@ -7382,11 +7511,11 @@
       <c r="G44" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="H44" s="9" t="s">
+      <c r="I44" s="9" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>173</v>
       </c>
@@ -7406,11 +7535,11 @@
       <c r="G45" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="I45" s="9" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>174</v>
       </c>
@@ -7430,11 +7559,11 @@
       <c r="G46" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="H46" s="9" t="s">
+      <c r="I46" s="9" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>175</v>
       </c>
@@ -7454,11 +7583,11 @@
       <c r="G47" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="H47" s="9" t="s">
+      <c r="I47" s="9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>176</v>
       </c>
@@ -7478,11 +7607,11 @@
       <c r="G48" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="H48" s="9" t="s">
+      <c r="I48" s="9" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>177</v>
       </c>
@@ -7505,11 +7634,11 @@
       <c r="G49" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H49" s="9" t="s">
+      <c r="I49" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>178</v>
       </c>
@@ -7532,11 +7661,11 @@
       <c r="G50" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="H50" s="9" t="s">
+      <c r="I50" s="9" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>179</v>
       </c>
@@ -7559,11 +7688,11 @@
       <c r="G51" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="H51" s="9" t="s">
+      <c r="I51" s="9" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>180</v>
       </c>
@@ -7586,11 +7715,11 @@
       <c r="G52" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="H52" s="9" t="s">
+      <c r="I52" s="9" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>181</v>
       </c>
@@ -7613,11 +7742,11 @@
       <c r="G53" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="H53" s="9" t="s">
+      <c r="I53" s="9" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>182</v>
       </c>
@@ -7640,11 +7769,11 @@
       <c r="G54" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="H54" s="9" t="s">
+      <c r="I54" s="9" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>183</v>
       </c>
@@ -7667,11 +7796,11 @@
       <c r="G55" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="H55" s="9" t="s">
+      <c r="I55" s="9" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>184</v>
       </c>
@@ -7694,11 +7823,11 @@
       <c r="G56" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="H56" s="9" t="s">
+      <c r="I56" s="9" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>185</v>
       </c>
@@ -7721,11 +7850,11 @@
       <c r="G57" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="H57" s="9" t="s">
+      <c r="I57" s="9" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>186</v>
       </c>
@@ -7748,11 +7877,11 @@
       <c r="G58" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="H58" s="9" t="s">
+      <c r="I58" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>187</v>
       </c>
@@ -7775,11 +7904,11 @@
       <c r="G59" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="H59" s="9" t="s">
+      <c r="I59" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>188</v>
       </c>
@@ -7802,11 +7931,12 @@
       <c r="G60" s="13" t="s">
         <v>541</v>
       </c>
-      <c r="H60" s="9" t="s">
+      <c r="H60" s="13"/>
+      <c r="I60" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>189</v>
       </c>
@@ -7829,11 +7959,11 @@
       <c r="G61" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="H61" s="9" t="s">
+      <c r="I61" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>190</v>
       </c>
@@ -7856,11 +7986,12 @@
       <c r="G62" s="13" t="s">
         <v>543</v>
       </c>
-      <c r="H62" s="9" t="s">
+      <c r="H62" s="13"/>
+      <c r="I62" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>191</v>
       </c>
@@ -7883,11 +8014,11 @@
       <c r="G63" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="H63" s="9" t="s">
+      <c r="I63" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>192</v>
       </c>
@@ -7910,11 +8041,11 @@
       <c r="G64" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="H64" s="9" t="s">
+      <c r="I64" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>193</v>
       </c>
@@ -7937,11 +8068,11 @@
       <c r="G65" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="H65" s="9" t="s">
+      <c r="I65" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>194</v>
       </c>
@@ -7964,11 +8095,11 @@
       <c r="G66" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="H66" s="9" t="s">
+      <c r="I66" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>195</v>
       </c>
@@ -7991,11 +8122,11 @@
       <c r="G67" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="H67" s="9" t="s">
+      <c r="I67" s="9" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>196</v>
       </c>
@@ -8018,11 +8149,11 @@
       <c r="G68" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="H68" s="9" t="s">
+      <c r="I68" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>197</v>
       </c>
@@ -8045,11 +8176,11 @@
       <c r="G69" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="H69" s="9" t="s">
+      <c r="I69" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>198</v>
       </c>
@@ -8061,7 +8192,7 @@
         <v>044</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>199</v>
       </c>
@@ -8073,7 +8204,7 @@
         <v>045</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>200</v>
       </c>
@@ -8085,7 +8216,7 @@
         <v>046</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>201</v>
       </c>
@@ -8097,7 +8228,7 @@
         <v>047</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>202</v>
       </c>
@@ -8109,7 +8240,7 @@
         <v>048</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>203</v>
       </c>
@@ -8121,7 +8252,7 @@
         <v>049</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>204</v>
       </c>
@@ -8133,7 +8264,7 @@
         <v>04A</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>205</v>
       </c>
@@ -8145,7 +8276,7 @@
         <v>04B</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>206</v>
       </c>
@@ -8157,7 +8288,7 @@
         <v>04C</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>207</v>
       </c>
@@ -8169,7 +8300,7 @@
         <v>04D</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>208</v>
       </c>
@@ -9809,7 +9940,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="G22:G25 A22:A29 F23:F26 F26:G26 E27:G28 F29:G34 E29:E37">
+  <conditionalFormatting sqref="G22:H25 A22:A29 F23:F26 F26:H26 E27:H28 F29:H34 E29:E37">
     <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"N"</formula>
     </cfRule>

--- a/Design Requirement/Codes iRt Creative.xlsx
+++ b/Design Requirement/Codes iRt Creative.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Html_CSS\Design Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6F70B9-3522-487E-AD61-480D50345D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E704657-5077-492B-9421-32C2704894FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{F32AC0A1-ED0B-4BE2-B833-AC1095930237}"/>
   </bookViews>
   <sheets>
     <sheet name="Used Code" sheetId="3" r:id="rId1"/>
-    <sheet name="util" sheetId="4" r:id="rId2"/>
-    <sheet name="CSS" sheetId="5" r:id="rId3"/>
+    <sheet name="JSX1" sheetId="4" r:id="rId2"/>
+    <sheet name="CSS1" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="585">
   <si>
     <t>Name</t>
   </si>
@@ -1757,6 +1757,42 @@
   </si>
   <si>
     <t>{authorName, date, imgPath, desc, productID = null, orientation = "H" }</t>
+  </si>
+  <si>
+    <t>generalPublic</t>
+  </si>
+  <si>
+    <t>helper</t>
+  </si>
+  <si>
+    <t>GetDimension</t>
+  </si>
+  <si>
+    <t>To get the Height &amp; width of the window whenever the size changes</t>
+  </si>
+  <si>
+    <t>src</t>
+  </si>
+  <si>
+    <t>crossIcon</t>
+  </si>
+  <si>
+    <t>linesicon</t>
+  </si>
+  <si>
+    <t>Icon in cross Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two lines that is used for Show hide </t>
+  </si>
+  <si>
+    <t>jsx</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Use for header</t>
   </si>
 </sst>
 </file>
@@ -2302,10 +2338,10 @@
   <dimension ref="A1:I333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2749,55 +2785,103 @@
         <v>559</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="10">
         <v>14</v>
       </c>
-      <c r="C16" s="5" t="str">
+      <c r="C16" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00E</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="D16" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="10">
         <v>15</v>
       </c>
-      <c r="C17" s="5" t="str">
+      <c r="C17" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00F</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="D17" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="10">
         <v>16</v>
       </c>
-      <c r="C18" s="5" t="str">
+      <c r="C18" s="11" t="str">
         <f t="shared" si="0"/>
         <v>010</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="D18" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="10">
         <v>17</v>
       </c>
-      <c r="C19" s="5" t="str">
+      <c r="C19" s="11" t="str">
         <f t="shared" si="0"/>
         <v>011</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>130</v>
       </c>
@@ -2809,7 +2893,7 @@
         <v>012</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>131</v>
       </c>
@@ -2821,7 +2905,7 @@
         <v>013</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>132</v>
       </c>
@@ -2833,7 +2917,7 @@
         <v>014</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>133</v>
       </c>
@@ -2845,7 +2929,7 @@
         <v>015</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>134</v>
       </c>
@@ -2857,7 +2941,7 @@
         <v>016</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>135</v>
       </c>
@@ -2869,7 +2953,7 @@
         <v>017</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>136</v>
       </c>
@@ -2881,7 +2965,7 @@
         <v>018</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>137</v>
       </c>
@@ -2893,7 +2977,7 @@
         <v>019</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>138</v>
       </c>
@@ -2905,7 +2989,7 @@
         <v>01A</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>139</v>
       </c>
@@ -2917,7 +3001,7 @@
         <v>01B</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>140</v>
       </c>
@@ -2929,7 +3013,7 @@
         <v>01C</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>141</v>
       </c>
@@ -2941,7 +3025,7 @@
         <v>01D</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>142</v>
       </c>
@@ -6327,7 +6411,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A17:A23 D17:H23">
+  <conditionalFormatting sqref="A17:A23 D19:H23 E17:H18">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"N"</formula>
     </cfRule>

--- a/Design Requirement/Codes iRt Creative.xlsx
+++ b/Design Requirement/Codes iRt Creative.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Html_CSS\Design Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E704657-5077-492B-9421-32C2704894FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE1853C-E914-4998-A04D-242010636643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{F32AC0A1-ED0B-4BE2-B833-AC1095930237}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="587">
   <si>
     <t>Name</t>
   </si>
@@ -1793,6 +1793,109 @@
   </si>
   <si>
     <t>Use for header</t>
+  </si>
+  <si>
+    <t>ImageGrid</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Show &amp; Hide the Section of the image depending upon </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Avenir Next LT Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t>VALUES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Avenir Next LT Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Specific cell (0, 1, 2, 3, 4, 5, 6, 7, 8, 9), Specific Row (R1, R2, R3), Specific Column (C1, C2, C3), Hide with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Avenir Next LT Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t>Specific Color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Avenir Next LT Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : (red, green, blue, white, yellow, cyan), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Avenir Next LT Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t>Boder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Avenir Next LT Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (O:Outer Grid Border, I: Inner border to form #, N:not any), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Avenir Next LT Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t>size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Avenir Next LT Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (it is Square, value in px), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Avenir Next LT Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t>gridSize</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Avenir Next LT Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Single Digit)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2338,10 +2441,10 @@
   <dimension ref="A1:I333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19:XFD19"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2881,7 +2984,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>130</v>
       </c>
@@ -2892,6 +2995,18 @@
         <f t="shared" si="0"/>
         <v>012</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -6411,7 +6526,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A17:A23 D19:H23 E17:H18">
+  <conditionalFormatting sqref="E17:H18 A17:A23 D19:H23">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"N"</formula>
     </cfRule>

--- a/Design Requirement/Codes iRt Creative.xlsx
+++ b/Design Requirement/Codes iRt Creative.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Html_CSS\Design Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE1853C-E914-4998-A04D-242010636643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67B67CD-D7EC-441F-981A-3E0C25B2279E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{F32AC0A1-ED0B-4BE2-B833-AC1095930237}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="589">
   <si>
     <t>Name</t>
   </si>
@@ -1895,6 +1895,33 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (Single Digit)</t>
+    </r>
+  </si>
+  <si>
+    <t>ResolveImageGridID</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">getCellFromRowId, getCellFromColId, getNumbersOnlyFromList, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Avenir Next LT Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t>resolveImageGridID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Avenir Next LT Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
   </si>
 </sst>
@@ -2444,7 +2471,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3008,7 +3035,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>131</v>
       </c>
@@ -3019,6 +3046,18 @@
         <f t="shared" si="0"/>
         <v>013</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -3030,6 +3069,9 @@
       <c r="C22" s="5" t="str">
         <f t="shared" si="0"/>
         <v>014</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">

--- a/Design Requirement/Codes iRt Creative.xlsx
+++ b/Design Requirement/Codes iRt Creative.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Html_CSS\Design Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67B67CD-D7EC-441F-981A-3E0C25B2279E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF3778F-8861-4D4E-887E-F0962B5A0113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{F32AC0A1-ED0B-4BE2-B833-AC1095930237}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="592">
   <si>
     <t>Name</t>
   </si>
@@ -1923,6 +1923,16 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+  </si>
+  <si>
+    <t>{size, backgroundImage,, value, grids = 3, 
+  color = "--colorWhite", border = "N", showCellNo = false,}</t>
+  </si>
+  <si>
+    <t>list,  grid, sort = false, duplicate = false, rowCol = false</t>
+  </si>
+  <si>
+    <t>Function that resolve IDs based on the list value : number=cellNo, R1=rowNo, C1=columnNo</t>
   </si>
 </sst>
 </file>
@@ -2471,7 +2481,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3011,52 +3021,61 @@
         <v>584</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:9" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="10">
         <v>18</v>
       </c>
-      <c r="C20" s="5" t="str">
+      <c r="C20" s="11" t="str">
         <f t="shared" si="0"/>
         <v>012</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="H20" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:9" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="10">
         <v>19</v>
       </c>
-      <c r="C21" s="5" t="str">
+      <c r="C21" s="11" t="str">
         <f t="shared" si="0"/>
         <v>013</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="9" t="s">
         <v>587</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="9" t="s">
         <v>588</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -6568,7 +6587,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="E17:H18 A17:A23 D19:H23">
+  <conditionalFormatting sqref="E17:H18 A17:A23 D22:H23 D21:G21 D19:H20">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"N"</formula>
     </cfRule>

--- a/Design Requirement/Codes iRt Creative.xlsx
+++ b/Design Requirement/Codes iRt Creative.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Html_CSS\Design Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF3778F-8861-4D4E-887E-F0962B5A0113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646BD414-AD3B-4E2B-AE22-7ACC86EE726D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{F32AC0A1-ED0B-4BE2-B833-AC1095930237}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="596">
   <si>
     <t>Name</t>
   </si>
@@ -1933,6 +1933,18 @@
   </si>
   <si>
     <t>Function that resolve IDs based on the list value : number=cellNo, R1=rowNo, C1=columnNo</t>
+  </si>
+  <si>
+    <t>creative Logo</t>
+  </si>
+  <si>
+    <t>{ width, type = 0}</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>type = 0 : written in single row, type=1:  written in two row, else: two rows with logo</t>
   </si>
 </sst>
 </file>
@@ -2478,10 +2490,10 @@
   <dimension ref="A1:I333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3078,19 +3090,34 @@
         <v>591</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="10">
         <v>20</v>
       </c>
-      <c r="C22" s="5" t="str">
+      <c r="C22" s="11" t="str">
         <f t="shared" si="0"/>
         <v>014</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>573</v>
+      <c r="D22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -6587,7 +6614,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="E17:H18 A17:A23 D22:H23 D21:G21 D19:H20">
+  <conditionalFormatting sqref="E17:H18 A17:A23 D19:H20 D21:G21 D22:H23">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"N"</formula>
     </cfRule>

--- a/Design Requirement/Codes iRt Creative.xlsx
+++ b/Design Requirement/Codes iRt Creative.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Html_CSS\Design Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646BD414-AD3B-4E2B-AE22-7ACC86EE726D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2237A120-5FE4-4B71-A340-EEA599F09367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{F32AC0A1-ED0B-4BE2-B833-AC1095930237}"/>
   </bookViews>

--- a/Design Requirement/Codes iRt Creative.xlsx
+++ b/Design Requirement/Codes iRt Creative.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Html_CSS\Design Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2237A120-5FE4-4B71-A340-EEA599F09367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8037803E-8D92-4744-AACF-4C4F48BD58D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{F32AC0A1-ED0B-4BE2-B833-AC1095930237}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="600">
   <si>
     <t>Name</t>
   </si>
@@ -1945,6 +1945,18 @@
   </si>
   <si>
     <t>type = 0 : written in single row, type=1:  written in two row, else: two rows with logo</t>
+  </si>
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>util</t>
+  </si>
+  <si>
+    <t>Scroll Style</t>
+  </si>
+  <si>
+    <t>To Design Scroll for the entire web site same</t>
   </si>
 </sst>
 </file>
@@ -2490,10 +2502,10 @@
   <dimension ref="A1:I333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3120,16 +3132,31 @@
         <v>595</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="10">
         <v>21</v>
       </c>
-      <c r="C23" s="5" t="str">
+      <c r="C23" s="11" t="str">
         <f t="shared" si="0"/>
         <v>015</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">

--- a/Design Requirement/Codes iRt Creative.xlsx
+++ b/Design Requirement/Codes iRt Creative.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Html_CSS\Design Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8037803E-8D92-4744-AACF-4C4F48BD58D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE5ADAD-9E7A-4155-AAA9-8B36ED0D0D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{F32AC0A1-ED0B-4BE2-B833-AC1095930237}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="609">
   <si>
     <t>Name</t>
   </si>
@@ -1957,6 +1957,33 @@
   </si>
   <si>
     <t>To Design Scroll for the entire web site same</t>
+  </si>
+  <si>
+    <t>helper/home</t>
+  </si>
+  <si>
+    <t>TagLine</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>TagLine With Images for general Representatio n of our Brand</t>
+  </si>
+  <si>
+    <t>First Lander Page View</t>
+  </si>
+  <si>
+    <t>hooks</t>
+  </si>
+  <si>
+    <t>useLogoWidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this will return the size on chhanging device width </t>
   </si>
 </sst>
 </file>
@@ -2505,7 +2532,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3159,28 +3186,64 @@
         <v>599</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="10">
         <v>22</v>
       </c>
-      <c r="C24" s="5" t="str">
+      <c r="C24" s="11" t="str">
         <f t="shared" si="0"/>
         <v>016</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="D24" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="10">
         <v>23</v>
       </c>
-      <c r="C25" s="5" t="str">
+      <c r="C25" s="11" t="str">
         <f t="shared" si="0"/>
         <v>017</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -3193,6 +3256,21 @@
       <c r="C26" s="5" t="str">
         <f t="shared" si="0"/>
         <v>018</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">

--- a/Design Requirement/Codes iRt Creative.xlsx
+++ b/Design Requirement/Codes iRt Creative.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Html_CSS\Design Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE5ADAD-9E7A-4155-AAA9-8B36ED0D0D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06EF101-648C-4089-99BA-B8F01B27441B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{F32AC0A1-ED0B-4BE2-B833-AC1095930237}"/>
   </bookViews>
@@ -2532,7 +2532,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3246,30 +3246,30 @@
         <v>605</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="10">
         <v>24</v>
       </c>
-      <c r="C26" s="5" t="str">
+      <c r="C26" s="11" t="str">
         <f t="shared" si="0"/>
         <v>018</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="9" t="s">
         <v>608</v>
       </c>
     </row>

--- a/Design Requirement/Codes iRt Creative.xlsx
+++ b/Design Requirement/Codes iRt Creative.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Html_CSS\Design Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06EF101-648C-4089-99BA-B8F01B27441B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E64CD1A-98A1-46C3-931D-48A85EACA63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{F32AC0A1-ED0B-4BE2-B833-AC1095930237}"/>
   </bookViews>
@@ -2529,10 +2529,10 @@
   <dimension ref="A1:I333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Design Requirement/Codes iRt Creative.xlsx
+++ b/Design Requirement/Codes iRt Creative.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Html_CSS\Design Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E64CD1A-98A1-46C3-931D-48A85EACA63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB3BA91-BB01-4720-937B-06E6E29A7FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{F32AC0A1-ED0B-4BE2-B833-AC1095930237}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="623">
   <si>
     <t>Name</t>
   </si>
@@ -1984,6 +1984,48 @@
   </si>
   <si>
     <t xml:space="preserve">this will return the size on chhanging device width </t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>IRT Creative Structure</t>
+  </si>
+  <si>
+    <t>Data that have all the Services, Devisions, Departments, Sectors and its Code</t>
+  </si>
+  <si>
+    <t>getServiceData</t>
+  </si>
+  <si>
+    <t>helper/service</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>return the Data from json file of page object</t>
+  </si>
+  <si>
+    <t>Filter1</t>
+  </si>
+  <si>
+    <t>Filter with Search box, and named Tab</t>
+  </si>
+  <si>
+    <t>Filter2</t>
+  </si>
+  <si>
+    <t>named Tabs</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>SearchBox</t>
+  </si>
+  <si>
+    <t>For Searching through Data</t>
   </si>
 </sst>
 </file>
@@ -2529,10 +2571,10 @@
   <dimension ref="A1:I333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3284,6 +3326,15 @@
         <f t="shared" si="0"/>
         <v>019</v>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -3296,6 +3347,24 @@
         <f t="shared" si="0"/>
         <v>01A</v>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -3308,6 +3377,24 @@
         <f t="shared" si="0"/>
         <v>01B</v>
       </c>
+      <c r="D29" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -3320,6 +3407,24 @@
         <f t="shared" ref="C30:C67" si="1">IF(B30&lt;&gt;"", DEC2HEX(B30, 3), "")</f>
         <v>01C</v>
       </c>
+      <c r="D30" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -3331,6 +3436,24 @@
       <c r="C31" s="5" t="str">
         <f t="shared" si="1"/>
         <v>01D</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">

--- a/Design Requirement/Codes iRt Creative.xlsx
+++ b/Design Requirement/Codes iRt Creative.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Html_CSS\Design Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB3BA91-BB01-4720-937B-06E6E29A7FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966E19A5-4ADE-4926-A920-5E27F228A01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{F32AC0A1-ED0B-4BE2-B833-AC1095930237}"/>
   </bookViews>
@@ -2574,7 +2574,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3315,144 +3315,144 @@
         <v>608</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="10">
         <v>25</v>
       </c>
-      <c r="C27" s="5" t="str">
+      <c r="C27" s="11" t="str">
         <f t="shared" si="0"/>
         <v>019</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="9" t="s">
         <v>610</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="9" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="10">
         <v>26</v>
       </c>
-      <c r="C28" s="5" t="str">
+      <c r="C28" s="11" t="str">
         <f t="shared" si="0"/>
         <v>01A</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="9" t="s">
         <v>614</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="9" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="10">
         <v>27</v>
       </c>
-      <c r="C29" s="5" t="str">
+      <c r="C29" s="11" t="str">
         <f t="shared" si="0"/>
         <v>01B</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="9" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="10">
         <v>28</v>
       </c>
-      <c r="C30" s="5" t="str">
+      <c r="C30" s="11" t="str">
         <f t="shared" ref="C30:C67" si="1">IF(B30&lt;&gt;"", DEC2HEX(B30, 3), "")</f>
         <v>01C</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="9" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="10">
         <v>29</v>
       </c>
-      <c r="C31" s="5" t="str">
+      <c r="C31" s="11" t="str">
         <f t="shared" si="1"/>
         <v>01D</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="9" t="s">
         <v>620</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" s="9" t="s">
         <v>622</v>
       </c>
     </row>

--- a/Design Requirement/Codes iRt Creative.xlsx
+++ b/Design Requirement/Codes iRt Creative.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Html_CSS\Design Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966E19A5-4ADE-4926-A920-5E27F228A01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E6E5F3-DF62-45E6-923A-4D4FCF39114F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{F32AC0A1-ED0B-4BE2-B833-AC1095930237}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="627">
   <si>
     <t>Name</t>
   </si>
@@ -2026,6 +2026,18 @@
   </si>
   <si>
     <t>For Searching through Data</t>
+  </si>
+  <si>
+    <t>Written Logo</t>
+  </si>
+  <si>
+    <t>LogoWritten</t>
+  </si>
+  <si>
+    <t>Logo written by self</t>
+  </si>
+  <si>
+    <t>{size='1em'}</t>
   </si>
 </sst>
 </file>
@@ -2571,10 +2583,10 @@
   <dimension ref="A1:I333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3456,16 +3468,34 @@
         <v>622</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="10">
         <v>30</v>
       </c>
-      <c r="C32" s="5" t="str">
+      <c r="C32" s="11" t="str">
         <f t="shared" si="1"/>
         <v>01E</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">

--- a/Design Requirement/Codes iRt Creative.xlsx
+++ b/Design Requirement/Codes iRt Creative.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Html_CSS\Design Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E6E5F3-DF62-45E6-923A-4D4FCF39114F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D2EBD6-523F-421B-BBD9-0C432C6C272D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{F32AC0A1-ED0B-4BE2-B833-AC1095930237}"/>
+    <workbookView xWindow="9705" yWindow="0" windowWidth="19200" windowHeight="16305" activeTab="1" xr2:uid="{F32AC0A1-ED0B-4BE2-B833-AC1095930237}"/>
   </bookViews>
   <sheets>
     <sheet name="Used Code" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="637">
   <si>
     <t>Name</t>
   </si>
@@ -2028,16 +2028,46 @@
     <t>For Searching through Data</t>
   </si>
   <si>
-    <t>Written Logo</t>
-  </si>
-  <si>
-    <t>LogoWritten</t>
-  </si>
-  <si>
     <t>Logo written by self</t>
   </si>
   <si>
     <t>{size='1em'}</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>{ color = "--colorGray3", width = "100%", props }</t>
+  </si>
+  <si>
+    <t>To make a line</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>IndiaMap</t>
+  </si>
+  <si>
+    <t>{ mapTitle = "Our Loactions" }</t>
+  </si>
+  <si>
+    <t>India  Map</t>
+  </si>
+  <si>
+    <t>OurStructuredApproch</t>
+  </si>
+  <si>
+    <t>Describing How Our Company is Divided into different Catagories so that Business can be mannaged Efficiently</t>
+  </si>
+  <si>
+    <t>Tab</t>
+  </si>
+  <si>
+    <t>{ tabName, link }</t>
+  </si>
+  <si>
+    <t>Side tabs : it have contents and onclick of that we get tranfered to different  location</t>
   </si>
 </sst>
 </file>
@@ -2583,10 +2613,10 @@
   <dimension ref="A1:I333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
+      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3483,58 +3513,112 @@
         <v>597</v>
       </c>
       <c r="E32" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="I32" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>624</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>624</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>626</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    </row>
+    <row r="33" spans="1:9" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="10">
         <v>31</v>
       </c>
-      <c r="C33" s="5" t="str">
+      <c r="C33" s="11" t="str">
         <f t="shared" si="1"/>
         <v>01F</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="D33" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="10">
         <v>32</v>
       </c>
-      <c r="C34" s="5" t="str">
+      <c r="C34" s="11" t="str">
         <f t="shared" si="1"/>
         <v>020</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="D34" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="10">
         <v>33</v>
       </c>
-      <c r="C35" s="5" t="str">
+      <c r="C35" s="11" t="str">
         <f t="shared" si="1"/>
         <v>021</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>146</v>
       </c>
@@ -3545,8 +3629,26 @@
         <f t="shared" si="1"/>
         <v>022</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>147</v>
       </c>
@@ -3558,7 +3660,7 @@
         <v>023</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>148</v>
       </c>
@@ -3570,7 +3672,7 @@
         <v>024</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>149</v>
       </c>
@@ -3582,7 +3684,7 @@
         <v>025</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>168</v>
       </c>
@@ -3594,7 +3696,7 @@
         <v>026</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>169</v>
       </c>
@@ -3606,7 +3708,7 @@
         <v>027</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>170</v>
       </c>
@@ -3618,7 +3720,7 @@
         <v>028</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>171</v>
       </c>
@@ -3630,7 +3732,7 @@
         <v>029</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>270</v>
       </c>
@@ -3642,7 +3744,7 @@
         <v>02A</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>271</v>
       </c>
@@ -3654,7 +3756,7 @@
         <v>02B</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>272</v>
       </c>
@@ -3666,7 +3768,7 @@
         <v>02C</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>273</v>
       </c>
@@ -3678,7 +3780,7 @@
         <v>02D</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>274</v>
       </c>

--- a/Design Requirement/Codes iRt Creative.xlsx
+++ b/Design Requirement/Codes iRt Creative.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Html_CSS\Design Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D2EBD6-523F-421B-BBD9-0C432C6C272D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2C8C57-7B8E-47E5-863F-F2932B2824E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9705" yWindow="0" windowWidth="19200" windowHeight="16305" activeTab="1" xr2:uid="{F32AC0A1-ED0B-4BE2-B833-AC1095930237}"/>
   </bookViews>
@@ -1748,9 +1748,6 @@
   </si>
   <si>
     <t>{ imgPath, name, title = null, desc, borderCol = "cyan", }</t>
-  </si>
-  <si>
-    <t>{ imgPath, productName, desc, btnLink = "#", productID = null, color = "blue", orientation = "S", }</t>
   </si>
   <si>
     <t>Parameters</t>
@@ -2068,6 +2065,9 @@
   </si>
   <si>
     <t>Side tabs : it have contents and onclick of that we get tranfered to different  location</t>
+  </si>
+  <si>
+    <t>{ imgPath, productName, desc, btnLink = "#", productID = null, color = "cyan", orientation = "S", }</t>
   </si>
 </sst>
 </file>
@@ -2613,10 +2613,10 @@
   <dimension ref="A1:I333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2943,7 +2943,7 @@
         <v>538</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>570</v>
+        <v>636</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>556</v>
@@ -2973,7 +2973,7 @@
         <v>555</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>557</v>
@@ -3072,16 +3072,16 @@
         <v>00E</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="G16" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="I16" s="9" t="s">
         <v>575</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3096,16 +3096,16 @@
         <v>00F</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E17" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>578</v>
-      </c>
       <c r="I17" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3120,16 +3120,16 @@
         <v>010</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3144,16 +3144,16 @@
         <v>011</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E19" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="I19" s="9" t="s">
         <v>583</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -3168,19 +3168,19 @@
         <v>012</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G20" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>585</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -3195,22 +3195,22 @@
         <v>013</v>
       </c>
       <c r="D21" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>574</v>
-      </c>
       <c r="F21" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>587</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>588</v>
-      </c>
       <c r="H21" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="I21" s="9" t="s">
         <v>590</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3228,19 +3228,19 @@
         <v>16</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F22" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="H22" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="I22" s="9" t="s">
         <v>594</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3258,16 +3258,16 @@
         <v>16</v>
       </c>
       <c r="E23" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="G23" s="9" t="s">
         <v>597</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="I23" s="9" t="s">
         <v>598</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3282,22 +3282,22 @@
         <v>016</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E24" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>600</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>601</v>
-      </c>
       <c r="G24" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H24" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I24" s="9" t="s">
         <v>603</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3312,22 +3312,22 @@
         <v>017</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F25" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="H25" s="9" t="s">
         <v>602</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>603</v>
-      </c>
       <c r="I25" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3342,19 +3342,19 @@
         <v>018</v>
       </c>
       <c r="D26" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="G26" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I26" s="9" t="s">
         <v>607</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>607</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3369,13 +3369,13 @@
         <v>019</v>
       </c>
       <c r="D27" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="I27" s="9" t="s">
         <v>610</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3390,22 +3390,22 @@
         <v>01A</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E28" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="H28" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>612</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>612</v>
-      </c>
-      <c r="H28" s="9" t="s">
+      <c r="I28" s="9" t="s">
         <v>614</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3420,22 +3420,22 @@
         <v>01B</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F29" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I29" s="9" t="s">
         <v>616</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3450,22 +3450,22 @@
         <v>01C</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F30" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I30" s="9" t="s">
         <v>618</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3480,22 +3480,22 @@
         <v>01D</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F31" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>620</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="H31" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I31" s="9" t="s">
         <v>621</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3510,22 +3510,22 @@
         <v>01E</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3540,22 +3540,22 @@
         <v>01F</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F33" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="H33" s="9" t="s">
         <v>625</v>
       </c>
-      <c r="G33" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="H33" s="9" t="s">
+      <c r="I33" s="9" t="s">
         <v>626</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3570,22 +3570,22 @@
         <v>020</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F34" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="H34" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="G34" s="9" t="s">
-        <v>629</v>
-      </c>
-      <c r="H34" s="9" t="s">
+      <c r="I34" s="9" t="s">
         <v>630</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3600,52 +3600,52 @@
         <v>021</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F35" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I35" s="9" t="s">
         <v>632</v>
       </c>
-      <c r="G35" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    </row>
+    <row r="36" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="10">
         <v>34</v>
       </c>
-      <c r="C36" s="5" t="str">
+      <c r="C36" s="11" t="str">
         <f t="shared" si="1"/>
         <v>022</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="F36" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="H36" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="H36" s="2" t="s">
+      <c r="I36" s="9" t="s">
         <v>635</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -7033,7 +7033,7 @@
         <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>

--- a/Design Requirement/Codes iRt Creative.xlsx
+++ b/Design Requirement/Codes iRt Creative.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Html_CSS\Design Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2C8C57-7B8E-47E5-863F-F2932B2824E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E1ADC5-780C-4D74-B1C8-4DA421FFE91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9705" yWindow="0" windowWidth="19200" windowHeight="16305" activeTab="1" xr2:uid="{F32AC0A1-ED0B-4BE2-B833-AC1095930237}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="648">
   <si>
     <t>Name</t>
   </si>
@@ -2069,6 +2069,39 @@
   <si>
     <t>{ imgPath, productName, desc, btnLink = "#", productID = null, color = "cyan", orientation = "S", }</t>
   </si>
+  <si>
+    <t>OnLoadScreen</t>
+  </si>
+  <si>
+    <t>We can say this the Home page for Service Tab</t>
+  </si>
+  <si>
+    <t>WhereWeServe</t>
+  </si>
+  <si>
+    <t>DataWeServe</t>
+  </si>
+  <si>
+    <t>ServeData</t>
+  </si>
+  <si>
+    <t>has all the places where we can work like Houses, Offices, etc</t>
+  </si>
+  <si>
+    <t>our json data that has all the places where we can work has category, spces, images</t>
+  </si>
+  <si>
+    <t>OurStructure</t>
+  </si>
+  <si>
+    <t>Our json Data: Mapped, Dicision, Departments, Services, Sectors</t>
+  </si>
+  <si>
+    <t>ServiceIntro</t>
+  </si>
+  <si>
+    <t>Service Introductory Lines</t>
+  </si>
 </sst>
 </file>
 
@@ -2156,7 +2189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2190,6 +2223,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2613,10 +2655,10 @@
   <dimension ref="A1:I333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3648,64 +3690,151 @@
         <v>635</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="15">
         <v>35</v>
       </c>
-      <c r="C37" s="5" t="str">
+      <c r="C37" s="16" t="str">
         <f t="shared" si="1"/>
         <v>023</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="D37" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="10">
         <v>36</v>
       </c>
-      <c r="C38" s="5" t="str">
+      <c r="C38" s="11" t="str">
         <f t="shared" si="1"/>
         <v>024</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="D38" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="10">
         <v>37</v>
       </c>
-      <c r="C39" s="5" t="str">
+      <c r="C39" s="11" t="str">
         <f t="shared" si="1"/>
         <v>025</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="D39" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="10">
         <v>38</v>
       </c>
-      <c r="C40" s="5" t="str">
+      <c r="C40" s="11" t="str">
         <f t="shared" si="1"/>
         <v>026</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="D40" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="10">
         <v>39</v>
       </c>
-      <c r="C41" s="5" t="str">
+      <c r="C41" s="11" t="str">
         <f t="shared" si="1"/>
         <v>027</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">

--- a/Design Requirement/Codes iRt Creative.xlsx
+++ b/Design Requirement/Codes iRt Creative.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Html_CSS\Design Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E1ADC5-780C-4D74-B1C8-4DA421FFE91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF9AD8F-8C0C-4F14-9B98-FFEBEC31AE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9705" yWindow="0" windowWidth="19200" windowHeight="16305" activeTab="1" xr2:uid="{F32AC0A1-ED0B-4BE2-B833-AC1095930237}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{F32AC0A1-ED0B-4BE2-B833-AC1095930237}"/>
   </bookViews>
   <sheets>
     <sheet name="Used Code" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="651">
   <si>
     <t>Name</t>
   </si>
@@ -2102,6 +2102,15 @@
   <si>
     <t>Service Introductory Lines</t>
   </si>
+  <si>
+    <t>ServicePage</t>
+  </si>
+  <si>
+    <t>{serviceCode, ServiceName, DeptCode, DeptName, SectCode, SectName, DiviCode, DiviName, imgPath}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the page where All my Services are Visible </t>
+  </si>
 </sst>
 </file>
 
@@ -2189,7 +2198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2223,15 +2232,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2658,7 +2658,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F50" sqref="F50"/>
+      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3690,33 +3690,33 @@
         <v>635</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B37" s="15">
+      <c r="B37" s="4">
         <v>35</v>
       </c>
-      <c r="C37" s="16" t="str">
+      <c r="C37" s="5" t="str">
         <f t="shared" si="1"/>
         <v>023</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="F37" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="G37" s="14" t="s">
+      <c r="G37" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="H37" s="14" t="s">
+      <c r="H37" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="I37" s="14" t="s">
+      <c r="I37" s="2" t="s">
         <v>638</v>
       </c>
     </row>
@@ -3837,16 +3837,34 @@
         <v>645</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:9" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="10">
         <v>40</v>
       </c>
-      <c r="C42" s="5" t="str">
+      <c r="C42" s="11" t="str">
         <f t="shared" si="1"/>
         <v>028</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">

--- a/Design Requirement/Codes iRt Creative.xlsx
+++ b/Design Requirement/Codes iRt Creative.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Html_CSS\Design Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF9AD8F-8C0C-4F14-9B98-FFEBEC31AE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DE47AE-496D-4C0D-8A73-5E7ECA319E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{F32AC0A1-ED0B-4BE2-B833-AC1095930237}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{F32AC0A1-ED0B-4BE2-B833-AC1095930237}"/>
   </bookViews>
   <sheets>
     <sheet name="Used Code" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="652">
   <si>
     <t>Name</t>
   </si>
@@ -2110,6 +2110,9 @@
   </si>
   <si>
     <t xml:space="preserve">This is the page where All my Services are Visible </t>
+  </si>
+  <si>
+    <t>#FEC630 or #dbac2b</t>
   </si>
 </sst>
 </file>
@@ -2654,7 +2657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F65C472-B990-4495-8C7C-F3BDF161FC29}">
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -7137,11 +7140,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6790FF6-08CE-4BDA-BC38-6C314F2201DC}">
   <dimension ref="A1:I339"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H68" sqref="H68"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7281,7 +7284,7 @@
         <v>66</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>32</v>
+        <v>651</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
